--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DFA1C8-92B3-4D54-9E28-48A754F2966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBBA573-8E07-45D0-A275-6C7494796272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{839BF131-A9AB-436F-920D-8656409557CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0A9F988C-E8F8-400A-8129-3589D633499C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BE189D-2E8B-F059-BF31-187F720B526B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B68224-B304-55F0-86EC-4AEEFC0C7598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD830B2-033F-628B-E646-5326E8FD9916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886817E3-CCDF-4E14-A022-42814D378BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B2A489-5FE1-4EBA-A767-E0658AFA3856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A811D1A-CBC9-44C7-8CF1-E20CD9EC2474}">
   <dimension ref="A1:U474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25888,7 +25888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F07E67-B601-47C0-B8BA-C2D76D03EDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07D867-07F4-4A16-8ADF-35E82CAD6DD1}">
   <dimension ref="A1:T643"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBBA573-8E07-45D0-A275-6C7494796272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F8795D-1F00-46C1-A587-9A9567AAA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0A9F988C-E8F8-400A-8129-3589D633499C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5D1097B8-6052-4D94-8760-D79FED7C77D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B68224-B304-55F0-86EC-4AEEFC0C7598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41148C1A-A2ED-E53E-1649-BF936A8497DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886817E3-CCDF-4E14-A022-42814D378BF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB4DF12-C303-490D-FB52-ACA106D45E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A811D1A-CBC9-44C7-8CF1-E20CD9EC2474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD384-63EB-48CB-B64D-9E3463A0A6A4}">
   <dimension ref="A1:U474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25888,7 +25888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07D867-07F4-4A16-8ADF-35E82CAD6DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687052B7-F25B-41F4-81A9-34CD3D45ED9D}">
   <dimension ref="A1:T643"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F8795D-1F00-46C1-A587-9A9567AAA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A4BB86-4E47-49F6-8B6E-965C2C903614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5D1097B8-6052-4D94-8760-D79FED7C77D4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EA3F0070-7E04-4B24-BFDA-2EBDC4D96A65}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41148C1A-A2ED-E53E-1649-BF936A8497DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D86783-A6CD-7325-2632-D7E58DB8C014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB4DF12-C303-490D-FB52-ACA106D45E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FF3D1E-D95D-5FAD-AE2D-C4D0ACC1A958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD384-63EB-48CB-B64D-9E3463A0A6A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8AB5CF-D116-4AF2-A16C-2226F62167AC}">
   <dimension ref="A1:U474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25888,7 +25888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687052B7-F25B-41F4-81A9-34CD3D45ED9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7657DF47-C6DF-4955-BC1D-77FC764F7417}">
   <dimension ref="A1:T643"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2A6112-756C-474B-9B4A-29EB8B9BCEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{230359C6-82E0-4140-922C-123E9104E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4B963155-13B8-4DCC-BF9D-58D0A00829BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{837D783C-767D-46AD-B603-9AB269541EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3350,7 +3350,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809E17AC-C282-7DD1-63E6-1893A5C1E44F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F446FB7E-E76D-B1D6-9E56-D4ABB6EDCBA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3405,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280A375B-DC39-7D21-0C52-3BA6F29158FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E932FF4B-8EE1-6003-5E16-ACF7D3AF2E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5076CFA-842C-4F67-BD3C-D687BBB3904E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B34202-9CFD-49D6-87D5-BF9558F79C90}">
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25891,7 +25891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80BCC1-A835-481C-8277-57AB45F7805D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64FCC4F-45B4-4E13-993B-174984700A9B}">
   <dimension ref="A1:S650"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230359C6-82E0-4140-922C-123E9104E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6F6832-F1BC-477C-A8C6-EE442AF3A405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{837D783C-767D-46AD-B603-9AB269541EE7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09685D4C-4BAF-48A1-A743-5875A81A79B0}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3350,7 +3350,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F446FB7E-E76D-B1D6-9E56-D4ABB6EDCBA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D66A7A7-53DD-48C5-C968-1748086FB8D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3405,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E932FF4B-8EE1-6003-5E16-ACF7D3AF2E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FF1B33-483F-7FC9-2BFA-AF9FC90DA5D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B34202-9CFD-49D6-87D5-BF9558F79C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11F5AC4-B22D-4FC8-B457-A679FB1751A8}">
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25891,7 +25891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64FCC4F-45B4-4E13-993B-174984700A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46246A3-5E24-4ECB-9F48-E3FF49AB86BD}">
   <dimension ref="A1:S650"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8367544-67E9-4564-9583-3BACDB9D677C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E64FC2-7663-4925-812E-E9DEFED2094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C67EB696-3279-4DCE-AC0E-8295B93297C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{967F41E0-113C-498D-8C2B-29DC8A99CB01}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2104A54-A130-B426-5F25-E6B8D465FE90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDCC9A0-ABDF-5972-5214-ADB797B5C5D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3408,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9A512-B036-CB73-A866-36A0846A2AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377417AE-31CA-4CC2-D417-56943E68301A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3759,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DDAEBC-0339-404B-96A2-8A4EBDA533ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EA4785-4BFE-42DD-8C4B-401BFAF613D7}">
   <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25894,7 +25894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46309FF3-F570-4342-B039-0F6326F587F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736AADCA-356E-47BF-AECE-3E84F81E5266}">
   <dimension ref="A1:T650"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F18075-463E-4339-887A-AD173C62B405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D666E07-F610-448B-A010-0FB5E18FDCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{82F94DEC-1AC1-4E37-A37E-26B4D2FDAC7D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E85E67AF-ADAD-4624-B317-8445F9B3619D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3551,7 +3551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7642C05-FB71-472A-A94C-DB111A23D093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D988F3F-B342-4A36-9B48-19DEB2932F7D}">
   <dimension ref="B9:T481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -25657,7 +25657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB21646-9629-4E6A-B1A1-73F898DECBEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76955101-BFA0-4C85-AC0F-CDE1B1173052}">
   <dimension ref="B9:T650"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -50006,7 +50006,7 @@
         <v>33</v>
       </c>
       <c r="L539">
-        <v>0.14068762447748068</v>
+        <v>0.1406876244774807</v>
       </c>
     </row>
     <row r="540" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AB53F3-E269-4166-9EB9-B81D4D623258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2975EDD-1502-4550-94B7-F249537E92D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E8544988-A5DC-4D14-A238-AE9DD2B6472A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E2725D42-9EDF-448A-BAC1-42754B5682DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3383,7 +3383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE93F29C-93F3-4F6F-9B4C-1EBB37933D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458A19F5-3297-4AAD-957C-A6A6DAAF8564}">
   <dimension ref="B9:T466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24565,7 +24565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844BEFE0-67A2-42C1-9775-9B16218F4AE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3540F3-01DC-4C2C-9D4B-2F4B110E1172}">
   <dimension ref="B9:T623"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -49910,7 +49910,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L590">
-        <v>0.33802250703984926</v>
+        <v>0.33802250703984932</v>
       </c>
     </row>
     <row r="591" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
+++ b/VerveStacks_DEU/vt_vervestacks_DEU_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2975EDD-1502-4550-94B7-F249537E92D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07D06D61-E368-4B7F-ABAE-2B8067D06B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E2725D42-9EDF-448A-BAC1-42754B5682DE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{88375829-F622-4FE1-8296-3204C4AC81B5}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3383,7 +3383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458A19F5-3297-4AAD-957C-A6A6DAAF8564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72743F-1421-4673-A120-3D6418892A39}">
   <dimension ref="B9:T466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24565,7 +24565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3540F3-01DC-4C2C-9D4B-2F4B110E1172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87672045-D7D5-4C83-AEF6-AB7A18D5F89A}">
   <dimension ref="B9:T623"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
